--- a/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,65%</t>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-25,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 2,83</t>
+          <t>-5,16; 11,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 3,18</t>
+          <t>-4,24; 8,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 0,54</t>
+          <t>-8,82; 1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 1,51</t>
+          <t>-8,16; 14,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 24,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 6,78</t>
+          <t>-31,93; 146,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 7,07</t>
+          <t>-26,85; 83,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-50,94; 17,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; 145,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,26%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,44</t>
+          <t>-9,15; 5,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,05</t>
+          <t>-7,35; 4,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 0,72</t>
+          <t>-9,94; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 7,89</t>
+          <t>-12,37; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 16,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 17,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 3,43</t>
+          <t>-32,98; 25,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 32,5</t>
+          <t>-24,58; 22,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-34,32; 5,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-41,6; 8,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-25,5%</t>
+          <t>-41,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>-16,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-22,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; -0,19</t>
+          <t>-17,12; -2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 1,85</t>
+          <t>-10,36; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; -0,26</t>
+          <t>-10,46; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 11,72</t>
+          <t>-13,3; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -0,55</t>
+          <t>-62,23; -11,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 68,33</t>
+          <t>-40,67; 12,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 1,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-45,92; 9,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,73%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-20,95%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-26,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -0,53</t>
+          <t>-7,12; 3,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,35</t>
+          <t>-12,75; 1,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,22</t>
+          <t>-13,93; -1,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,31; -10,4</t>
+          <t>-32,19; 20,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 13,6</t>
+          <t>-45,16; 8,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-43,89; -4,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-14,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-23,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-21,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 0,29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 0,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; -2,04</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; -1,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 1,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-23,88; 3,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; -9,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-34,14; -5,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>28,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,05%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-25,26%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>1.673929782818739</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.367467493005098</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.687185797265259</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.084094888297357</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.1176075033222925</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1020448842097185</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2533637226766379</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.06902773079573638</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 11,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 8,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 1,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 14,25</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-31,93; 146,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,85; 83,28</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-50,94; 17,42</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-40,81; 145,7</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.64261372120815</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.815090821823603</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.004855614753543</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.515177370725221</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.4207461079680989</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3023208280040105</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.510930122301171</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4210089375010681</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.08317355303174</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.369322203281234</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.836667914453128</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.88540410117625</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.263549725537093</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7252415564602229</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1712716450310065</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.33183362409546</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,32</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,67%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-17,4%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-20,29%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 5,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 4,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 1,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,37; 2,12</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-32,98; 25,12</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,58; 22,13</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-34,32; 5,93</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-41,6; 8,45</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-3.199388011291143</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.135749813978015</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.799039891786452</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.991424095523032</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.1326312135879127</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.04347803486229215</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1799859177596836</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2234293431826814</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-41,67%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-16,96%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-25,72%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-22,91%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.811883213741204</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.478759489258898</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.13190861703647</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.70052238979856</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.3601495207808153</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2523126906671455</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3474570377795741</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.420107694929782</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,12; -2,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 2,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 0,19</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; 1,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-62,23; -11,32</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,67; 12,86</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-43,1; 1,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-45,92; 9,94</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.880032914831851</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.832100954173091</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.11020706500496</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.456408114496185</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1980189676177833</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2127297514693431</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04753698021430779</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.06988589765395664</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-7,6</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-20,95%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-26,74%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-8.164261225724193</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.623590428053214</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.522574275892985</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.576408362122157</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.3819489011647582</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1691029523180613</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2614067164533757</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2251822608542627</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 3,27</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,75; 1,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; -1,01</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-32,19; 20,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-45,16; 8,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-43,89; -4,46</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.29263085657774</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.978813439285911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.57752074198323</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.91370129167</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6064816619908009</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4018504712131183</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4290626924171308</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4586813563425612</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.35134728758217</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.221697735447862</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.04146086102214878</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.8101405725718</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.05970031644022095</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1201390053237969</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.004915928698645008</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.09705273272722006</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-14,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-10,53%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-23,26%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-21,39%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 0,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 0,67</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -2,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; -1,26</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-28,62; 1,8</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-23,88; 3,26</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-34,68; -9,74</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-34,14; -5,49</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.227812605995668</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.767595599181948</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.326372322016548</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.720341518370164</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.1966233671485519</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.08020237743405087</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2380351428646349</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1967539791021483</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.271313269561594</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.515736208860353</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.559527115739183</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.968167826770433</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.3741067513205341</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2275137892515657</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3518006994307908</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3704081309969642</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.0770120709622506</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.988972372892741</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.186708960288021</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.1045807311969123</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.008046279923396909</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.09865591859769153</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1034514929637752</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.002337490746630557</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
